--- a/artfynd/A 2759-2025 artfynd.xlsx
+++ b/artfynd/A 2759-2025 artfynd.xlsx
@@ -1509,7 +1509,7 @@
         <v>122768066</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
